--- a/biology/Botanique/Jardin_d'Erevan_(Paris)/Jardin_d'Erevan_(Paris).xlsx
+++ b/biology/Botanique/Jardin_d'Erevan_(Paris)/Jardin_d'Erevan_(Paris).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27Erevan_(Paris)</t>
+          <t>Jardin_d'Erevan_(Paris)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin d'Erevan est un jardin du 8e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27Erevan_(Paris)</t>
+          <t>Jardin_d'Erevan_(Paris)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet espace vert est situé sur l'esplanade d'Arménie, le long de la rive droite de la Seine, sur le cours Albert-Ier, entre le pont des Invalides et le pont de l'Alma.
 Il jouxte le Monument en hommage à Komitas de David Erevantzi.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27Erevan_(Paris)</t>
+          <t>Jardin_d'Erevan_(Paris)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin porte le nom d'Erevan, capitale de l'Arménie.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_d%27Erevan_(Paris)</t>
+          <t>Jardin_d'Erevan_(Paris)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est inauguré en 2009 par le maire de Paris Bertrand Delanoë et le ministre arménien des Affaires étrangères Édouard Nalbandian, en présence notamment de Charles Aznavour et Hélène Ségara[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inauguré en 2009 par le maire de Paris Bertrand Delanoë et le ministre arménien des Affaires étrangères Édouard Nalbandian, en présence notamment de Charles Aznavour et Hélène Ségara.
 </t>
         </is>
       </c>
